--- a/documents/Staff_Allocation.xlsx
+++ b/documents/Staff_Allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ourtube\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909D7BEF-5E1A-4191-B78F-54B4892CC7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591F537-3BA4-4FA3-9163-A1E477200AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35730" yWindow="915" windowWidth="18090" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Part</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,54 @@
   </si>
   <si>
     <t>api 작성 / 배포 / 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML, CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER Diagram / OracleDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring boot / Eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링 / api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XD, 일러스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손 / 엑셀 / 워드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +256,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -427,18 +481,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,34 +509,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -756,676 +831,968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L46"/>
+  <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11" t="s">
+      <c r="I23" s="16"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20" t="s">
+      <c r="G25" s="14"/>
+      <c r="H25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
+      <c r="I29" s="16"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11" t="s">
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11" t="s">
+      <c r="I33" s="16"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11" t="s">
+      <c r="G34" s="14"/>
+      <c r="H34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="12"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11" t="s">
+      <c r="I37" s="16"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="24"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="180">
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
@@ -1438,129 +1805,6 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Staff_Allocation.xlsx
+++ b/documents/Staff_Allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ourtube\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591F537-3BA4-4FA3-9163-A1E477200AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B50E44-13AD-401C-8970-E5C76B0DF4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="300" windowWidth="15150" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,12 +518,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,15 +539,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -834,29 +834,29 @@
   <dimension ref="B1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="N4" sqref="B3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
@@ -874,22 +874,22 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
@@ -897,18 +897,18 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
@@ -916,14 +916,14 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="11"/>
@@ -931,14 +931,14 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="12"/>
@@ -946,14 +946,14 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="11"/>
@@ -961,14 +961,14 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="11"/>
@@ -976,14 +976,14 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="11"/>
@@ -991,14 +991,14 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="11"/>
@@ -1006,22 +1006,22 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
@@ -1029,39 +1029,39 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="11"/>
       <c r="M12" s="9"/>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8"/>
@@ -1069,14 +1069,14 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="11"/>
@@ -1084,14 +1084,14 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="11"/>
@@ -1099,14 +1099,14 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="11"/>
@@ -1114,14 +1114,14 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="11"/>
@@ -1129,14 +1129,14 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="11"/>
@@ -1144,14 +1144,14 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="11"/>
@@ -1159,14 +1159,14 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="11"/>
@@ -1174,56 +1174,56 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="21"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="21"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="7"/>
       <c r="L22" s="8"/>
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="11"/>
@@ -1231,73 +1231,73 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15" t="s">
+      <c r="G24" s="25"/>
+      <c r="H24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="21"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="11"/>
@@ -1305,14 +1305,14 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="11"/>
@@ -1320,14 +1320,14 @@
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="11"/>
@@ -1335,75 +1335,75 @@
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="8"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="24"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="25"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="24"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15" t="s">
+      <c r="G32" s="25"/>
+      <c r="H32" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="24"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="11"/>
@@ -1411,71 +1411,71 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="24"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15" t="s">
+      <c r="G35" s="25"/>
+      <c r="H35" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="16"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="24"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="8"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="24"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="11"/>
@@ -1483,35 +1483,35 @@
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="25"/>
+      <c r="F38" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15" t="s">
+      <c r="G38" s="25"/>
+      <c r="H38" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="11"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="24"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="11"/>
@@ -1519,14 +1519,14 @@
       <c r="N39" s="10"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="11"/>
@@ -1534,14 +1534,14 @@
       <c r="N40" s="10"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="11"/>
@@ -1549,14 +1549,14 @@
       <c r="N41" s="10"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="16"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="11"/>
@@ -1564,14 +1564,14 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="11"/>
@@ -1579,14 +1579,14 @@
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="11"/>
@@ -1594,14 +1594,14 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="11"/>
@@ -1609,14 +1609,14 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="11"/>
@@ -1625,6 +1625,171 @@
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H43:I43"/>
@@ -1640,171 +1805,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
